--- a/QUESTÕES/DIR PREVIDENCIÁRIO 04.xlsx
+++ b/QUESTÕES/DIR PREVIDENCIÁRIO 04.xlsx
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108:B183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2673,7 +2673,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
